--- a/biology/Médecine/Angine_de_poitrine/Angine_de_poitrine.xlsx
+++ b/biology/Médecine/Angine_de_poitrine/Angine_de_poitrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'angine de poitrine Écouter, ou angor (en latin : angina pectoris ou angor pectoris, « constriction de la poitrine »), est un symptôme cardiaque caractérisant la maladie coronarienne et se manifestant par une douleur thoracique résultant d'un manque d'apport d'oxygène au myocarde, le plus souvent consécutive à une diminution du débit sanguin dans une artère coronaire (on parle de sténose coronarienne). Ce manque d'oxygène au niveau du cœur est appelé ischémie du myocarde. L'angine de poitrine est un symptôme commun mais inconstant de l'ischémie du myocarde : cette douleur survient typiquement lors d'un effort et cesse à l'arrêt de ce dernier. C'est ce qui peut aider à distinguer l'angine des autres types de douleurs thoraciques.
-L'angor stable entre dans le cadre du « syndrome coronarien chronique »[1].
+L'angor stable entre dans le cadre du « syndrome coronarien chronique ».
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début du XVIIIe siècle, Giovanni Maria Lancisi décrivit des douleurs thoraciques d'effort qu'il estima liées à une anomalie cardiaque mais sans envisager son origine coronaire. Nicolas-François Rougnon décrivit en 1768 les manifestations de cette maladie à partir du cas du capitaine Charles, officier de cavalerie.
-La paternité de la découverte est attribuée à William Heberden, qui en a fait une description plus complète à partir d'une vingtaine de cas, et qui lui a donné le nom d'angine de poitrine. Heberden fit sa description magistrale le 21 juillet 1768 avec description des symptômes, pronostic, etc. mais ne publia qu'en 1772 sous le nom d'Angina pectori[2].
+La paternité de la découverte est attribuée à William Heberden, qui en a fait une description plus complète à partir d'une vingtaine de cas, et qui lui a donné le nom d'angine de poitrine. Heberden fit sa description magistrale le 21 juillet 1768 avec description des symptômes, pronostic, etc. mais ne publia qu'en 1772 sous le nom d'Angina pectori.
 L'origine coronaire de l'affection fut l'œuvre d'Edward Jenner après l'étude autopsique d'un cœur aux coronaires calcifiées.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'angor est dû à une ischémie myocardique, généralement consécutive à une sténose coronarienne. Les artères coronaires fournissent le sang et l'oxygène au cœur. Le rétrécissement de ces artères est très souvent provoqué par la formation d’une plaque d’athérome (dépôts gras et fibreux), ce qui rétrécit le diamètre des artères et entraîne une diminution du flux sanguin. Il en résulte une inadéquation entre les besoins en oxygène du myocarde et les apports par la circulation coronarienne. Cette inadéquation est d’autant plus importante lors d’un effort physique. Le système nerveux réagit en émettant des signaux de douleur, ce qui explique la douleur ressentie pendant l’effort.
 Classiquement, l'ischémie est de courte durée et réversible lors d'un angor, sans destruction cellulaire. Elle est prolongée et responsable d'une destruction cellulaire significative lors d'un infarctus du myocarde.
@@ -579,7 +595,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'angine de poitrine est dite « stable » si les douleurs sont anciennes, survenant pour le même type de circonstance, sans aggravation récente. Il entre dans le cadre du « syndrome coronarien chronique »
 L'angine de poitrine est dite « instable » (ou « syndrome de menace ») si la ou les douleurs sont d'apparition récentes, ou deviennent plus fréquentes ou apparaissent dans des circonstances pour lesquelles elles n'existaient pas auparavant. L'angor instable entre dans le cadre du syndrome coronarien aigu et nécessite une hospitalisation en urgence.
@@ -616,7 +634,9 @@
           <t>Facteurs de risque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Facteurs de risque non modifiables :
 le sexe (les hommes sont davantage touchés par cette cardiopathie) ;
@@ -627,7 +647,7 @@
 le tabac ;
 le diabète ;
 l'hypertension artérielle.
-Autres facteurs, le stress[3] et la sédentarité qui sont bien établis mais qui posent le problème de leur mesure qui est difficile.
+Autres facteurs, le stress et la sédentarité qui sont bien établis mais qui posent le problème de leur mesure qui est difficile.
 L'obésité est également un facteur de risque mais dont l'indépendance est discutée. L'obésité est fortement associée à l'hypertension artérielle, au diabète et à l'hypercholestérolémie ; c'est également le cas de l'élévation des triglycérides. L'ensemble de ces éléments constituant le syndrome métabolique.
 Certains éléments pourraient avoir un effet protecteur : la consommation journalière de fruits et légumes et la pratique régulière d’exercice physique.
 </t>
@@ -658,7 +678,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'angine de poitrine stable survient typiquement à l'effort. La douleur se situe le plus fréquemment derrière le sternum : elle est dite « rétrosternale ». Souvent elle s’étend également le long du bras gauche, dans le dos, sur les côtés, dans la région supérieure de l'abdomen, dans le bras gauche, le cou, la mâchoire ou même les dents. Parfois, la douleur peut se produire dans ces régions, mais pas dans la poitrine. Elle est souvent décrite soit comme un vague endolorissement, une pression ou comme une douleur constrictive (sensation d'étau). Elle est prolongée d'au moins quelques minutes. Ainsi, il est peu probable qu'une douleur de quelques secondes soit liée à une douleur angineuse.
 On peut l'estimer en nombre d'étages ou en distance de marche qui la provoque.
@@ -699,7 +721,9 @@
           <t>Examen clinique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut être totalement normal. On doit rechercher les facteurs de risque par l'interrogatoire (tabagisme, antécédents familiaux, bilans sanguins précédents) et la mesure de la pression artérielle.
 Certains signes peuvent conforter le diagnostic, notamment en cas d'atteinte d'autres axes vasculaires (abolition d'un pouls, présence d'un souffle vasculaire), ou orienter vers une cause précise (présence d'un souffle cardiaque évocateur d'un rétrécissement aortique).
@@ -731,11 +755,13 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L’interrogatoire est un élément clé du diagnostic. Grâce aux caractéristiques de la douleur, aux antécédents cardiaques et vasculaires du patients et aux facteurs de risque associés, on va pouvoir estimer une probabilité plus ou moins élevée de diagnostic d'angor.
 L'électrocardiogramme de repos est normal en dehors des crises et si le patient n'a jamais fait d'infarctus. La biologie est normale avec un taux bas de troponine dans le sang, une élévation de cette dernière signifiant souvent une évolutivité de la maladie et requérant un avis spécialisé rapide, voire une hospitalisation.
-En cas de doute diagnostiqué, les explorations sont poursuivies par un test d'ischémie. Le plus simple est l'épreuve d'effort où un électrocardiogramme est réalisé à différentes phases d'un effort de plus en plus important. Cet examen tend à être remplacé par une scintigraphie myocardique ou par une échographie de stress[1]. En cas d'impossibilité de réaliser un effort, peuvent être faites une échocardiographie dobutamine (injection d'un médicament qui va accélérer la fréquence cardiaque) ou une scintigraphie myocardique-dipyridamole.
+En cas de doute diagnostiqué, les explorations sont poursuivies par un test d'ischémie. Le plus simple est l'épreuve d'effort où un électrocardiogramme est réalisé à différentes phases d'un effort de plus en plus important. Cet examen tend à être remplacé par une scintigraphie myocardique ou par une échographie de stress. En cas d'impossibilité de réaliser un effort, peuvent être faites une échocardiographie dobutamine (injection d'un médicament qui va accélérer la fréquence cardiaque) ou une scintigraphie myocardique-dipyridamole.
 Une autre possibilité est de visualiser directement les artères coronaires, soit par un scanner coronaire, soit par une coronarographie. Ce dernier examen reste l'examen de référence et permet de proposer parfois dans un même temps un traitement spécifique, l'angioplastie coronaire.
 </t>
         </is>
@@ -765,22 +791,137 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prise en charge de l'angine de poitrine stable a fait l'objet de la publication de recommandations par des sociétés savantes internationales. Celles de l'European Society of Cardiology datent de 2019[1], celles, américaines, de 2014[4].
-Traitement de fond
-Le traitement a deux intérêts :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prise en charge de l'angine de poitrine stable a fait l'objet de la publication de recommandations par des sociétés savantes internationales. Celles de l'European Society of Cardiology datent de 2019, celles, américaines, de 2014.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Angine_de_poitrine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angine_de_poitrine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Traitement de fond</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le traitement a deux intérêts :
 diminuer ou supprimer toute douleur ;
 réduire le risque de survenue d'un accident cardiaque : angor instable, finalement infarctus, mort subite…
 Certains traitements ne jouent que sur l'un des deux aspects, ce qui explique la nécessité d'un traitement combiné.
-Le choix entre un traitement médicamenteux et une revascularisation dépend du type des lésions sur les artères coronaires et la sévérité des symptômes, ainsi que du terrain. En première intention, une attitude invasive (coronarographie suivie de revascularisation) n'a pas démontré de supériorité par rapport à un traitement simplement médicamenteux[5]. 
-Traitements anti-angineux et anti-agrégants
-Les bêta-bloquants et quelques inhibiteurs calciques comme le mibéfradil réduisent les besoins en oxygène du cœur. Ils ralentissent la fréquence cardiaque et abaissent la pression artérielle.
+Le choix entre un traitement médicamenteux et une revascularisation dépend du type des lésions sur les artères coronaires et la sévérité des symptômes, ainsi que du terrain. En première intention, une attitude invasive (coronarographie suivie de revascularisation) n'a pas démontré de supériorité par rapport à un traitement simplement médicamenteux. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Angine_de_poitrine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angine_de_poitrine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Traitement de fond</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Traitements anti-angineux et anti-agrégants</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bêta-bloquants et quelques inhibiteurs calciques comme le mibéfradil réduisent les besoins en oxygène du cœur. Ils ralentissent la fréquence cardiaque et abaissent la pression artérielle.
 Les dérivés nitrés aident à dilater les artères périphériques et à diminuer la charge du cœur, réduisant de fait sa consommation d'oxygène, de même que les inhibiteurs calciques.
 D'autres médicaments permettent également d'améliorer les symptômes : l'isradipine permet de ralentir le cœur lorsque les bêta-bloquants sont contre-indiqués ou pas assez efficaces. La trimétazidine, comme la ranolazine (ce dernier n'étant pas disponible en France), a un effet anti-ischémique.
 Les antiagrégants plaquettaires comme l'aspirine sont donnés pour prévenir la formation de caillots qui bloqueraient les artères coronaires. Ils n'ont pas d'effet sur les symptômes de l'angine mais diminuent le risque d'accident évolutif.
-Revascularisation
-L’angioplastie consiste en la dilatation de l’artère puis la mise en place d’un stent pour conserver ce nouveau diamètre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Angine_de_poitrine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angine_de_poitrine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Traitement de fond</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Revascularisation</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’angioplastie consiste en la dilatation de l’artère puis la mise en place d’un stent pour conserver ce nouveau diamètre.
 Le pontage coronarien est une opération chirurgicale où on rattache des vaisseaux d’une autre partie du corps aux artères coronaires rétrécies.
 Le choix entre ces deux techniques dépend du nombre et du type des lésions sur les artères coronaires, du terrain (âge et maladies associées).
 Ni l'angioplastie ni le pontage ne retirent les plaques. Si les facteurs de risque en cause ne sont pas pris en compte, il est probable que les artères s'obstruent de nouveau.
@@ -788,33 +929,35 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Angine_de_poitrine</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Angine_de_poitrine</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Angine_de_poitrine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angine_de_poitrine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il consiste en une lutte contre les facteurs de risque[6] :
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il consiste en une lutte contre les facteurs de risque :
 une alimentation à base d'aliments complets d'origine végétale ;
 une activité physique d'endurance régulière (marche rapide, vélo) pour un total de 3 heures par semaine ;
 arrêter le tabagisme le cas échéant.
